--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43392B0-BF0A-4055-A602-643A528C971D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F776719D-D043-42CC-819B-BCE8399D72E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>kredi_orani</t>
   </si>
   <si>
-    <t>nakit_orani</t>
-  </si>
-  <si>
     <t>ortalama_vade (yil)</t>
   </si>
   <si>
@@ -54,14 +51,38 @@
   </si>
   <si>
     <t>indirimli_yillik_faiz</t>
+  </si>
+  <si>
+    <t>max indirimli kredi miktari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,14 +108,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
+    <cellStyle name="Yüzde" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,19 +440,20 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -433,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,34 +470,35 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" s="2">
+        <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0.12</v>
+      <c r="B5" s="2">
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.08</v>
+      <c r="B6" s="3">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F776719D-D043-42CC-819B-BCE8399D72E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8F1273-6722-472B-9EC4-BC2101953D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="binek" sheetId="1" r:id="rId1"/>
+    <sheet name="LCV" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>degisken</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>max indirimli kredi miktari</t>
+  </si>
+  <si>
+    <t>lcv_kredi_orani</t>
+  </si>
+  <si>
+    <t>lcv_ortalama_vade (yil)</t>
+  </si>
+  <si>
+    <t>lcv_max indirimli kredi miktari</t>
   </si>
 </sst>
 </file>
@@ -62,7 +72,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -117,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +449,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,4 +511,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D26063-1C04-4862-9558-960AB0E64F44}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8F1273-6722-472B-9EC4-BC2101953D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94AA8D9-7D3D-4114-970A-D1671B5A33B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
   <sheets>
     <sheet name="binek" sheetId="1" r:id="rId1"/>
     <sheet name="LCV" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>degisken</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>lcv_max indirimli kredi miktari</t>
+  </si>
+  <si>
+    <t>kredi_talep_esnekligi</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,6 +508,14 @@
       </c>
       <c r="B6" s="3">
         <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D26063-1C04-4862-9558-960AB0E64F44}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94AA8D9-7D3D-4114-970A-D1671B5A33B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456DBF9A-4C75-438E-AD28-93632393014E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
+    <workbookView xWindow="2355" yWindow="1950" windowWidth="23250" windowHeight="12570" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
   <sheets>
     <sheet name="binek" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456DBF9A-4C75-438E-AD28-93632393014E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A97E71D-8C99-4AEC-AE74-A6C58DFA9966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="1950" windowWidth="23250" windowHeight="12570" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
   <sheets>
     <sheet name="binek" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>lcv_max indirimli kredi miktari</t>
   </si>
   <si>
-    <t>kredi_talep_esnekligi</t>
+    <t>kredi_kullanan_arac_orani</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A97E71D-8C99-4AEC-AE74-A6C58DFA9966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD334B8-7F97-41C0-89D1-E4B5BD8A3C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
+    <workbookView xWindow="3390" yWindow="2985" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
   <sheets>
     <sheet name="binek" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>degisken</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>kredi_kullanan_arac_orani</t>
+  </si>
+  <si>
+    <t>kredi_kullanan_LCV_orani</t>
   </si>
 </sst>
 </file>
@@ -452,8 +455,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D26063-1C04-4862-9558-960AB0E64F44}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +586,15 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>100000</v>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD334B8-7F97-41C0-89D1-E4B5BD8A3C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A177E52-5593-4DDD-85EC-75923A9100F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="2985" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
   <sheets>
     <sheet name="binek" sheetId="1" r:id="rId1"/>
     <sheet name="LCV" sheetId="2" r:id="rId2"/>
+    <sheet name="HDV" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>degisken</t>
   </si>
@@ -70,6 +71,18 @@
   </si>
   <si>
     <t>kredi_kullanan_LCV_orani</t>
+  </si>
+  <si>
+    <t>hdv_kredi_orani</t>
+  </si>
+  <si>
+    <t>hdv_ortalama_vade (yil)</t>
+  </si>
+  <si>
+    <t>hdv_max indirimli kredi miktari</t>
+  </si>
+  <si>
+    <t>kredi_kullanan_hdv_orani</t>
   </si>
 </sst>
 </file>
@@ -456,7 +469,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D26063-1C04-4862-9558-960AB0E64F44}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,6 +605,81 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD06BDE-3E8E-438F-9F88-9E6758651B2B}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0.52</v>

--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A177E52-5593-4DDD-85EC-75923A9100F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE674F83-B860-40A1-85BC-08C865950AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE674F83-B860-40A1-85BC-08C865950AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0D25B9-DB72-44B2-9BA0-D49AC4D709F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
+    <workbookView xWindow="7365" yWindow="2265" windowWidth="14520" windowHeight="7335" activeTab="2" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
   <sheets>
     <sheet name="binek" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>120000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0D25B9-DB72-44B2-9BA0-D49AC4D709F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46DED86-EFFB-4BD5-9566-73CA9EC0B954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="2265" windowWidth="14520" windowHeight="7335" activeTab="2" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
   <sheets>
     <sheet name="binek" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>degisken</t>
   </si>
@@ -79,10 +79,13 @@
     <t>hdv_ortalama_vade (yil)</t>
   </si>
   <si>
-    <t>hdv_max indirimli kredi miktari</t>
-  </si>
-  <si>
     <t>kredi_kullanan_hdv_orani</t>
+  </si>
+  <si>
+    <t>kamyon_max indirimli kredi miktari</t>
+  </si>
+  <si>
+    <t>otobus_max indirimli kredi miktari</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD06BDE-3E8E-438F-9F88-9E6758651B2B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +674,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>300000</v>
@@ -679,10 +682,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>700000</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46DED86-EFFB-4BD5-9566-73CA9EC0B954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86879B-C7DC-4640-AE15-B0E335C1B9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/r_input/kredi_indirimi.xlsx
+++ b/r_input/kredi_indirimi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcinar\Desktop\TR tax system\TR_tax_system-master_201004_ideal\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86879B-C7DC-4640-AE15-B0E335C1B9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADDE448-867C-4B63-8BD9-C7B6C3B188AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{F678959E-5C45-4896-80A4-1E09A95E6608}"/>
   </bookViews>
   <sheets>
     <sheet name="binek" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -145,16 +143,18 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
-    <cellStyle name="Yüzde" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,8 +471,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>120000</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +534,8 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.52</v>
+        <f>0.52*50%</f>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +549,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +603,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>120000</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,7 +611,8 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.52</v>
+        <f>0.7*50%</f>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -620,10 +622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD06BDE-3E8E-438F-9F88-9E6758651B2B}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +634,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -648,7 +650,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -656,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -664,31 +666,33 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <f>80%*50%</f>
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
